--- a/Config/EN/Environments.xlsx
+++ b/Config/EN/Environments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D540F4C3-89FA-461B-961B-42973160332A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10405A6-D408-4550-9704-8E8D6AEEC31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/EN/Environments.xlsx
+++ b/Config/EN/Environments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10405A6-D408-4550-9704-8E8D6AEEC31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E6B8AA-56DF-4B42-AAA8-0A3C9B22622C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
